--- a/public/file/SoalExample.xlsx
+++ b/public/file/SoalExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local-server\htdocs\projects\psb\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local Server\htdocs\projects\anugrah\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875E9B2-DC3A-4EF7-AE39-B13792C8D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BFA49F-635D-48A7-A7F6-2DB85355180C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{AAA19EC5-C36C-4D64-9870-E37CA3B0853A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AAA19EC5-C36C-4D64-9870-E37CA3B0853A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -33,9 +33,6 @@
     <t>BHS</t>
   </si>
   <si>
-    <t>Soal</t>
-  </si>
-  <si>
     <t>Jawaban A</t>
   </si>
   <si>
@@ -46,6 +43,36 @@
   </si>
   <si>
     <t>Jawaban D</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>MTK</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Soal Nomor 1</t>
+  </si>
+  <si>
+    <t>Soal Nomor 2</t>
+  </si>
+  <si>
+    <t>Soal Nomor 3</t>
+  </si>
+  <si>
+    <t>Soal Nomor 4</t>
   </si>
 </sst>
 </file>
@@ -407,18 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34167D28-1538-4355-8E54-92A5FCF3C97A}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:XFD1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="40.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
@@ -430,22 +458,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
